--- a/xlsx/_wiki_苏恰瓦_intext.xlsx
+++ b/xlsx/_wiki_苏恰瓦_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>苏恰瓦</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://ace.wikipedia.org/wiki/Suceava</t>
@@ -774,7 +768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1351,7 +1345,7 @@
         <v>48</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1374,7 +1368,7 @@
         <v>50</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1903,7 +1897,7 @@
         <v>96</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1926,7 +1920,7 @@
         <v>98</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2340,29 +2334,6 @@
         <v>134</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>68</v>
-      </c>
-      <c r="E69" t="s">
-        <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
-      </c>
-      <c r="G69" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_苏恰瓦_intext.xlsx
+++ b/xlsx/_wiki_苏恰瓦_intext.xlsx
@@ -23,73 +23,73 @@
     <t>https://zh.wikipedia.org/zh-cn/%E8%8B%8F%E6%81%B0%E7%93%A6</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
     <t>国家</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
     <t>罗马尼亚</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%B6%E5%8C%BA</t>
   </si>
   <si>
     <t>时区</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
     <t>罗马尼亚语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AF%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8C%88%E7%89%99%E5%88%A9%E8%AF%AD</t>
   </si>
   <si>
     <t>匈牙利语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%AA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B3%A2%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
     <t>波兰语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E8%AA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%83%8F%E5%85%8B%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
     <t>乌克兰语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E7%AC%AC%E7%B7%92%E8%AA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%84%8F%E7%AC%AC%E7%B7%92%E8%AA%9E</t>
   </si>
   <si>
     <t>意第绪语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E9%81%94%E7%B6%AD%E4%BA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%91%A9%E7%88%BE%E9%81%94%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
     <t>摩尔达维亚</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%A7%91%E7%B6%AD%E7%B4%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B8%83%E7%A7%91%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
     <t>布科维纳</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%81%B0%E7%93%A6%E7%B8%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%98%87%E6%81%B0%E7%93%A6%E7%B8%A3</t>
   </si>
   <si>
     <t>苏恰瓦县</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%81%B0%E7%93%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%98%87%E6%81%B0%E7%93%A6</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
